--- a/fms/src/main/resources/static/EXCEL/夹具实体模板.xlsx
+++ b/fms/src/main/resources/static/EXCEL/夹具实体模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="夹具实体表" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>seqID</t>
+    <t>seqId</t>
   </si>
   <si>
     <t>billNo</t>
@@ -31,7 +31,7 @@
     <t>usedCount</t>
   </si>
   <si>
-    <t>storeHouse</t>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -40,12 +40,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -70,6 +77,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -77,7 +91,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,34 +134,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,14 +152,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,44 +190,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,19 +229,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,85 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,73 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,30 +447,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -479,27 +462,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -522,157 +488,198 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,9 +703,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1024,7 +1029,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.9" customHeight="1" outlineLevelCol="5"/>
